--- a/SCBAA/2018/Region 5.xlsx
+++ b/SCBAA/2018/Region 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E409669-5ABF-4333-8209-C91789B926E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F0ABA5-DCF2-46D2-8672-7397FA569F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1350" windowWidth="14970" windowHeight="12495" firstSheet="1" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Ligao" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -863,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A25628-C352-48F1-8E8E-FEFECF825C21}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +995,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="35">
-        <f>4530308.18+6471868.83</f>
         <v>11002177.01</v>
       </c>
     </row>
@@ -1022,7 +1028,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>44159980.589999996</v>
       </c>
     </row>
@@ -1065,7 +1070,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="35">
-        <f>2959574.16+3844786.76</f>
         <v>6804360.9199999999</v>
       </c>
     </row>
@@ -1077,7 +1081,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>38302371.780000001</v>
       </c>
     </row>
@@ -1267,7 +1270,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>642485232.77999997</v>
       </c>
     </row>
@@ -1844,7 +1846,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>463551459.70999992</v>
       </c>
     </row>
@@ -2019,7 +2020,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>142255164.69</v>
       </c>
     </row>
@@ -2031,7 +2031,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>605806624.39999986</v>
       </c>
     </row>
@@ -5619,8 +5618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90C51F-5A07-4EFA-876D-8C2136C1048C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5777,7 +5776,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>367482272.43000001</v>
       </c>
     </row>
@@ -5831,7 +5829,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>224879370.26000002</v>
       </c>
     </row>
@@ -6022,7 +6019,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1156121166.53</v>
       </c>
     </row>
@@ -6599,7 +6595,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1112483413.54</v>
       </c>
     </row>
@@ -6766,7 +6761,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="18">
-        <f>5949005.7+2646668+44960962.64+21830530.35</f>
         <v>75387166.689999998</v>
       </c>
     </row>
@@ -6775,7 +6769,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>106847716.34999999</v>
       </c>
     </row>
@@ -6787,7 +6780,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1219331129.8899999</v>
       </c>
     </row>
@@ -6809,8 +6801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00879A72-461A-4487-B363-35C011A37554}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6956,7 +6948,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="35">
-        <f>1382452.95+851745.46+785707</f>
         <v>3019905.41</v>
       </c>
     </row>
@@ -6968,7 +6959,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>57771495.600000009</v>
       </c>
     </row>
@@ -7022,7 +7012,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>30651685.759999998</v>
       </c>
     </row>
@@ -7213,7 +7202,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>629056944.58000004</v>
       </c>
     </row>
@@ -7770,7 +7758,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="35">
-        <f>28887481.7+5749301.5+1149904.86</f>
         <v>35786688.060000002</v>
       </c>
     </row>
@@ -7791,7 +7778,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>573115018.30999994</v>
       </c>
     </row>
@@ -7966,7 +7952,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>60562634.939999998</v>
       </c>
     </row>
@@ -7978,7 +7963,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>633677653.25</v>
       </c>
     </row>
@@ -8000,7 +7984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DDB8D1-CBA9-451C-AF6C-E3E4CA57A4D6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
